--- a/data/Семинары по экологии биотехнологи 2022.xlsx
+++ b/data/Семинары по экологии биотехнологи 2022.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264"/>
-  </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_C3E3A8D5_38D3_4C84_9856_4B1255055C25_.wvu.FilterData">'Лист1'!$A$1:$H$30</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E1A17B23_75AB_441B_8759_E819DDAAAFA2_.wvu.FilterData">'Лист1'!$A$1:$H$30</definedName>
+  </definedNames>
+  <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C3E3A8D5-38D3-4C84-9856-4B1255055C25}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E1A17B23-75AB-441B-8759-E819DDAAAFA2}" name="Фильтр 2"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>Family</t>
   </si>
@@ -37,6 +41,9 @@
     <t>Seminar_1</t>
   </si>
   <si>
+    <t>Seminar_2</t>
+  </si>
+  <si>
     <t>Айвазьян</t>
   </si>
   <si>
@@ -167,9 +174,6 @@
   </si>
   <si>
     <t>st103018@student.spbu.ru</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Гельфман</t>
@@ -436,229 +440,66 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="10">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
-      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="&quot;Segoe UI&quot;"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF954F72"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF262626"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF262626"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF7F87A0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color rgb="FF242424"/>
+      <name val="&quot;Segoe UI&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <color rgb="FF954F72"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.0"/>
+      <color rgb="FF262626"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF262626"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF7F87A0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -666,532 +507,73 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1381,24 +763,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,238 +798,263 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
+      <c r="H3" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1668,13 +1071,16 @@
         <v>59</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1691,13 +1097,16 @@
         <v>64</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -1714,13 +1123,16 @@
         <v>69</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
+      <c r="H14" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1737,13 +1149,13 @@
         <v>74</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -1760,13 +1172,16 @@
         <v>78</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1774,7 +1189,7 @@
         <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>81</v>
@@ -1783,13 +1198,16 @@
         <v>82</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -1797,7 +1215,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>85</v>
@@ -1806,13 +1224,16 @@
         <v>86</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1829,13 +1250,16 @@
         <v>90</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="3" t="s">
         <v>91</v>
       </c>
@@ -1852,13 +1276,16 @@
         <v>95</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
@@ -1875,18 +1302,21 @@
         <v>99</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G21" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
+      <c r="H21" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>101</v>
@@ -1898,13 +1328,16 @@
         <v>103</v>
       </c>
       <c r="F22" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G22" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
+      <c r="H22" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -1921,13 +1354,16 @@
         <v>108</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G23" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
+      <c r="H23" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
@@ -1944,13 +1380,11 @@
         <v>113</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -1967,13 +1401,16 @@
         <v>117</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G25" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:7">
+      <c r="H25" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1981,7 +1418,7 @@
         <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>120</v>
@@ -1990,18 +1427,21 @@
         <v>121</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G26" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
+      <c r="H26" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>93</v>
@@ -2013,87 +1453,101 @@
         <v>124</v>
       </c>
       <c r="F27" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G27" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="7" t="s">
+      <c r="H27" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="10" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="4">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="G28" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="7" t="s">
+      <c r="H28" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>133</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G29" s="2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="10" t="s">
+      <c r="H29" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="14" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{E1A17B23-75AB-441B-8759-E819DDAAAFA2}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$H$30"/>
+    </customSheetView>
+    <customSheetView guid="{C3E3A8D5-38D3-4C84-9856-4B1255055C25}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$H$30"/>
+    </customSheetView>
+  </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="st103018@student.spbu.ru"/>
-    <hyperlink ref="E29" r:id="rId2" display="st101530@student.spbu.ru"/>
+    <hyperlink r:id="rId1" ref="E10"/>
+    <hyperlink r:id="rId2" ref="E29"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/Семинары по экологии биотехнологи 2022.xlsx
+++ b/data/Семинары по экологии биотехнологи 2022.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_C3E3A8D5_38D3_4C84_9856_4B1255055C25_.wvu.FilterData">'Лист1'!$A$1:$H$30</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E1A17B23_75AB_441B_8759_E819DDAAAFA2_.wvu.FilterData">'Лист1'!$A$1:$H$30</definedName>
+    <definedName name="Z_C3E3A8D5_38D3_4C84_9856_4B1255055C25_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$H$30</definedName>
+    <definedName name="Z_E1A17B23_75AB_441B_8759_E819DDAAAFA2_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$H$30</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="144525"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C3E3A8D5-38D3-4C84-9856-4B1255055C25}" name="Фильтр 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E1A17B23-75AB-441B-8759-E819DDAAAFA2}" name="Фильтр 2"/>
+    <customWorkbookView name="Фильтр 1" guid="{C3E3A8D5-38D3-4C84-9856-4B1255055C25}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Фильтр 2" guid="{E1A17B23-75AB-441B-8759-E819DDAAAFA2}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>Family</t>
   </si>
@@ -132,6 +136,9 @@
   </si>
   <si>
     <t>st102637@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Богданова</t>
@@ -440,66 +447,236 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\,##0\ &quot;₽&quot;_-;\-* #\,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\,##0.00\ &quot;₽&quot;_-;\-* #\,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\,##0_-;\-* #\,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\,##0.00_-;\-* #\,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="30">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="&quot;Segoe UI&quot;"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF954F72"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF7F87A0"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -507,73 +684,533 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -763,20 +1400,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +1443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -819,16 +1460,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -845,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>1.5</v>
@@ -854,7 +1495,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -871,16 +1512,16 @@
         <v>22</v>
       </c>
       <c r="F4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -897,16 +1538,16 @@
         <v>27</v>
       </c>
       <c r="F5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -923,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1.5</v>
@@ -932,7 +1573,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -949,88 +1590,96 @@
         <v>37</v>
       </c>
       <c r="F7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -1039,270 +1688,273 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F21" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
         <v>1.5</v>
@@ -1311,24 +1963,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="2">
         <v>1.5</v>
@@ -1337,24 +1989,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
         <v>1.5</v>
@@ -1363,45 +2015,50 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="2">
         <v>1.5</v>
@@ -1410,24 +2067,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
         <v>1.5</v>
@@ -1436,24 +2093,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
         <v>1.5</v>
@@ -1462,24 +2119,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="9" t="s">
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="E28" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="F28" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
         <v>1.5</v>
@@ -1488,66 +2145,72 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="9" t="s">
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="8" t="s">
         <v>133</v>
       </c>
+      <c r="E29" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="F29" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>1.5</v>
       </c>
       <c r="H29" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="E30" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="F30" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{E1A17B23-75AB-441B-8759-E819DDAAAFA2}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$H$30"/>
+      <autoFilter ref="A1:H30"/>
     </customSheetView>
     <customSheetView guid="{C3E3A8D5-38D3-4C84-9856-4B1255055C25}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$H$30"/>
+      <autoFilter ref="A1:H30"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E10"/>
-    <hyperlink r:id="rId2" ref="E29"/>
+    <hyperlink ref="E10" r:id="rId1" display="st103018@student.spbu.ru"/>
+    <hyperlink ref="E29" r:id="rId2" display="st101530@student.spbu.ru"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>